--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -81,7 +81,7 @@
     <t>User Sign Up Successful</t>
   </si>
   <si>
-    <t>test8@gmail.com</t>
+    <t>test9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -81,7 +81,16 @@
     <t>User Sign Up Successful</t>
   </si>
   <si>
-    <t>test9@gmail.com</t>
+    <t>abhradipr@nousinfo.com</t>
+  </si>
+  <si>
+    <t>test14@gmail.com</t>
+  </si>
+  <si>
+    <t>StoreDetails</t>
+  </si>
+  <si>
+    <t>Brand, Store Name, Store Number, Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,9 +436,10 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +476,11 @@
       <c r="L1" t="s">
         <v>18</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -493,24 +506,33 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Username</t>
   </si>
@@ -84,20 +84,138 @@
     <t>abhradipr@nousinfo.com</t>
   </si>
   <si>
-    <t>test14@gmail.com</t>
-  </si>
-  <si>
     <t>StoreDetails</t>
   </si>
   <si>
     <t>Brand, Store Name, Store Number, Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
+  </si>
+  <si>
+    <t>test15@gmail.com</t>
+  </si>
+  <si>
+    <t>ReportsCoulmnHeader</t>
+  </si>
+  <si>
+    <t>weekTimeSelection</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Stores, Menu Board, Greet, Service, Lane Queue *, Lane Total, Total Cars</t>
+  </si>
+  <si>
+    <t>Store_labels</t>
+  </si>
+  <si>
+    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,System Name,,System Version,,System Status</t>
+  </si>
+  <si>
+    <t>Total Week</t>
+  </si>
+  <si>
+    <t>Total Week
+(W-Avg)</t>
+  </si>
+  <si>
+    <t>Summarized Report</t>
+  </si>
+  <si>
+    <t>WeekReportHeader1</t>
+  </si>
+  <si>
+    <t>WeekReportHeader2</t>
+  </si>
+  <si>
+    <t>Store #:,Start Time:,Print Date:</t>
+  </si>
+  <si>
+    <t>Store Desc.:,Stop Time:,Print Time:</t>
+  </si>
+  <si>
+    <t>HmeEasyConfig+1@gmail.com</t>
+  </si>
+  <si>
+    <t>ReportUserName</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>includeText</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>formatText</t>
+  </si>
+  <si>
+    <t>Minutes (min:sec)</t>
+  </si>
+  <si>
+    <t>templateHeading</t>
+  </si>
+  <si>
+    <t>Weekly report for first 2 weeks in March</t>
+  </si>
+  <si>
+    <t>reportstartTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR 1, 2018 OPEN </t>
+  </si>
+  <si>
+    <t>reportendTime</t>
+  </si>
+  <si>
+    <t>MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>firstDateRange</t>
+  </si>
+  <si>
+    <t>MAR 1, 2018 OPEN - MAR 7, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>summaryHeading</t>
+  </si>
+  <si>
+    <t>secondDateRange</t>
+  </si>
+  <si>
+    <t>MAR 8, 2018 OPEN - MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +227,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -135,9 +260,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +567,24 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="100.5703125" customWidth="1"/>
+    <col min="13" max="13" width="110.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="98.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.42578125" customWidth="1"/>
+    <col min="20" max="20" width="40.5703125" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,10 +622,70 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -506,10 +711,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -518,11 +723,71 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -531,8 +796,9 @@
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="U2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="AccountsPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ReportsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="StorePage" sheetId="4" r:id="rId4"/>
+    <sheet name="SummarizedReportPage" sheetId="5" r:id="rId5"/>
+    <sheet name="UsersPage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -19,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Password</t>
   </si>
@@ -84,128 +86,146 @@
     <t>abhradipr@nousinfo.com</t>
   </si>
   <si>
+    <t>test14@gmail.com</t>
+  </si>
+  <si>
     <t>StoreDetails</t>
   </si>
   <si>
     <t>Brand, Store Name, Store Number, Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
   </si>
   <si>
-    <t>test15@gmail.com</t>
+    <t>ReportUserName</t>
+  </si>
+  <si>
+    <t>HmeEasyConfig+1@gmail.com</t>
+  </si>
+  <si>
+    <t>weekTimeSelection</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>includeText</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>formatText</t>
+  </si>
+  <si>
+    <t>Minutes (min:sec)</t>
+  </si>
+  <si>
+    <t>templateHeading</t>
+  </si>
+  <si>
+    <t>Weekly report for first 2 weeks in March</t>
+  </si>
+  <si>
+    <t>reportstartTime</t>
+  </si>
+  <si>
+    <t>reportendTime</t>
+  </si>
+  <si>
+    <t>MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>firstDateRange</t>
+  </si>
+  <si>
+    <t>MAR 1, 2018 OPEN - MAR 7, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>Summarized Report</t>
+  </si>
+  <si>
+    <t>summaryHeading</t>
+  </si>
+  <si>
+    <t>PublicReportUserName</t>
+  </si>
+  <si>
+    <t>mohanrk1@nousinfo.com</t>
+  </si>
+  <si>
+    <t>EndDate2</t>
+  </si>
+  <si>
+    <t>toDate2</t>
+  </si>
+  <si>
+    <t>Username1</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Store_labels</t>
+  </si>
+  <si>
+    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,System Name,,System Version,,System Status</t>
   </si>
   <si>
     <t>ReportsCoulmnHeader</t>
   </si>
   <si>
-    <t>weekTimeSelection</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
     <t>Stores, Menu Board, Greet, Service, Lane Queue *, Lane Total, Total Cars</t>
   </si>
   <si>
-    <t>Store_labels</t>
-  </si>
-  <si>
-    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,System Name,,System Version,,System Status</t>
-  </si>
-  <si>
-    <t>Total Week</t>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>secondDateRange</t>
+  </si>
+  <si>
+    <t>MAR 8, 2018 OPEN - MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>WeekReportHeader1</t>
+  </si>
+  <si>
+    <t>WeekReportHeader2</t>
+  </si>
+  <si>
+    <t>Store Desc.:,Stop Time:,Print Time:</t>
+  </si>
+  <si>
+    <t>MAR 1, 2018 OPEN</t>
   </si>
   <si>
     <t>Total Week
 (W-Avg)</t>
   </si>
   <si>
-    <t>Summarized Report</t>
-  </si>
-  <si>
-    <t>WeekReportHeader1</t>
-  </si>
-  <si>
-    <t>WeekReportHeader2</t>
-  </si>
-  <si>
-    <t>Store #:,Start Time:,Print Date:</t>
-  </si>
-  <si>
-    <t>Store Desc.:,Stop Time:,Print Time:</t>
-  </si>
-  <si>
-    <t>HmeEasyConfig+1@gmail.com</t>
-  </si>
-  <si>
-    <t>ReportUserName</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>fromDate</t>
-  </si>
-  <si>
-    <t>toDate</t>
-  </si>
-  <si>
-    <t>03/14/2018</t>
-  </si>
-  <si>
-    <t>includeText</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>formatText</t>
-  </si>
-  <si>
-    <t>Minutes (min:sec)</t>
-  </si>
-  <si>
-    <t>templateHeading</t>
-  </si>
-  <si>
-    <t>Weekly report for first 2 weeks in March</t>
-  </si>
-  <si>
-    <t>reportstartTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR 1, 2018 OPEN </t>
-  </si>
-  <si>
-    <t>reportendTime</t>
-  </si>
-  <si>
-    <t>MAR 14, 2018 CLOSE</t>
-  </si>
-  <si>
-    <t>firstDateRange</t>
-  </si>
-  <si>
-    <t>MAR 1, 2018 OPEN - MAR 7, 2018 CLOSE</t>
-  </si>
-  <si>
-    <t>summaryHeading</t>
-  </si>
-  <si>
-    <t>secondDateRange</t>
-  </si>
-  <si>
-    <t>MAR 8, 2018 OPEN - MAR 14, 2018 CLOSE</t>
-  </si>
-  <si>
-    <t>03/01/2018</t>
+    <t>TotalWeek</t>
+  </si>
+  <si>
+    <t>Store #:,Start Time:,Print Date:,Store Desc.:,Stop Time:,Print Time:</t>
   </si>
 </sst>
 </file>
@@ -215,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,17 +254,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,21 +299,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -550,16 +614,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
@@ -567,238 +633,393 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="110.28515625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="98.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
-    <col min="20" max="20" width="40.5703125" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="100.5703125" customWidth="1"/>
+    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="U2" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43163</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="135.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="ReportsPage" sheetId="3" r:id="rId3"/>
     <sheet name="StorePage" sheetId="4" r:id="rId4"/>
     <sheet name="SummarizedReportPage" sheetId="5" r:id="rId5"/>
-    <sheet name="UsersPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Password</t>
   </si>
@@ -207,12 +207,6 @@
   </si>
   <si>
     <t>WeekReportHeader1</t>
-  </si>
-  <si>
-    <t>WeekReportHeader2</t>
-  </si>
-  <si>
-    <t>Store Desc.:,Stop Time:,Print Time:</t>
   </si>
   <si>
     <t>MAR 1, 2018 OPEN</t>
@@ -226,6 +220,88 @@
   </si>
   <si>
     <t>Store #:,Start Time:,Print Date:,Store Desc.:,Stop Time:,Print Time:</t>
+  </si>
+  <si>
+    <t>averageTimeHeader</t>
+  </si>
+  <si>
+    <t>Week Menu Board Greet Service Lane Queue * Lane Total Total Cars</t>
+  </si>
+  <si>
+    <t>row1belowWeekHeader</t>
+  </si>
+  <si>
+    <t>row2belowWeekHeader</t>
+  </si>
+  <si>
+    <t>03/01 - 03/07
+OPEN - CLOSE</t>
+  </si>
+  <si>
+    <t>Summary Reports</t>
+  </si>
+  <si>
+    <t>summaryReports</t>
+  </si>
+  <si>
+    <t>groupDetailsText</t>
+  </si>
+  <si>
+    <t>Reporting Group Details</t>
+  </si>
+  <si>
+    <t>availableStoreList</t>
+  </si>
+  <si>
+    <t>cloudUsername</t>
+  </si>
+  <si>
+    <t>cloudPassword</t>
+  </si>
+  <si>
+    <t>selvendrank@nousinfo.com</t>
+  </si>
+  <si>
+    <t>nous;123</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupDesc</t>
+  </si>
+  <si>
+    <t>Group 11</t>
+  </si>
+  <si>
+    <t>South west branch Group 11</t>
+  </si>
+  <si>
+    <t>StoresInGroupList</t>
+  </si>
+  <si>
+    <t>availableStoreListforTC6</t>
+  </si>
+  <si>
+    <t>My group 101,Test group 2,Test 3,00001004,00001003</t>
+  </si>
+  <si>
+    <t>groupNameTC6</t>
+  </si>
+  <si>
+    <t>groupDescTC6</t>
+  </si>
+  <si>
+    <t>Group 1</t>
+  </si>
+  <si>
+    <t>South west branch Group 1</t>
+  </si>
+  <si>
+    <t>My group 101</t>
+  </si>
+  <si>
+    <t>Group112,My group 101</t>
   </si>
 </sst>
 </file>
@@ -235,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,12 +326,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -299,15 +369,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -617,7 +686,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +695,8 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -639,17 +709,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -662,8 +738,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -672,9 +754,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -700,37 +783,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -772,9 +855,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -791,50 +874,54 @@
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -844,7 +931,7 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
       <c r="E2">
@@ -859,20 +946,23 @@
       <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -899,17 +989,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -929,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,42 +1034,50 @@
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -990,20 +1088,26 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>66</v>
+      <c r="G2" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>64</v>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1014,12 +1118,77 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Password</t>
   </si>
@@ -283,9 +283,6 @@
     <t>availableStoreListforTC6</t>
   </si>
   <si>
-    <t>My group 101,Test group 2,Test 3,00001004,00001003</t>
-  </si>
-  <si>
     <t>groupNameTC6</t>
   </si>
   <si>
@@ -302,6 +299,42 @@
   </si>
   <si>
     <t>Group112,My group 101</t>
+  </si>
+  <si>
+    <t>Group112,My group 101,23315-store1</t>
+  </si>
+  <si>
+    <t>StoresInGroupListTC6</t>
+  </si>
+  <si>
+    <t>groupNameTC3</t>
+  </si>
+  <si>
+    <t>group6</t>
+  </si>
+  <si>
+    <t>groupDescTC3</t>
+  </si>
+  <si>
+    <t>Group6 desc</t>
+  </si>
+  <si>
+    <t>reportHeadingText</t>
+  </si>
+  <si>
+    <t>Reporting Group Management</t>
+  </si>
+  <si>
+    <t>manageLeaderGroupsText</t>
+  </si>
+  <si>
+    <t>Manage Leaderboard Groups</t>
+  </si>
+  <si>
+    <t>manageReportGroupsText</t>
+  </si>
+  <si>
+    <t>Manage Report Groups</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,9 +1167,15 @@
     <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1156,18 +1195,36 @@
         <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>87</v>
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1176,19 +1233,38 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
       <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" t="s">
-        <v>89</v>
+      <c r="I2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>Password</t>
   </si>
@@ -92,9 +92,6 @@
     <t>StoreDetails</t>
   </si>
   <si>
-    <t>Brand, Store Name, Store Number, Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
-  </si>
-  <si>
     <t>ReportUserName</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>Store_labels</t>
-  </si>
-  <si>
-    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,System Name,,System Version,,System Status</t>
   </si>
   <si>
     <t>ReportsCoulmnHeader</t>
@@ -244,15 +238,6 @@
     <t>summaryReports</t>
   </si>
   <si>
-    <t>groupDetailsText</t>
-  </si>
-  <si>
-    <t>Reporting Group Details</t>
-  </si>
-  <si>
-    <t>availableStoreList</t>
-  </si>
-  <si>
     <t>cloudUsername</t>
   </si>
   <si>
@@ -271,36 +256,18 @@
     <t>GroupDesc</t>
   </si>
   <si>
-    <t>Group 11</t>
-  </si>
-  <si>
     <t>South west branch Group 11</t>
   </si>
   <si>
-    <t>StoresInGroupList</t>
-  </si>
-  <si>
-    <t>availableStoreListforTC6</t>
-  </si>
-  <si>
     <t>groupNameTC6</t>
   </si>
   <si>
     <t>groupDescTC6</t>
   </si>
   <si>
-    <t>Group 1</t>
-  </si>
-  <si>
     <t>South west branch Group 1</t>
   </si>
   <si>
-    <t>My group 101</t>
-  </si>
-  <si>
-    <t>Group112,My group 101</t>
-  </si>
-  <si>
     <t>Group112,My group 101,23315-store1</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>groupNameTC3</t>
   </si>
   <si>
-    <t>group6</t>
-  </si>
-  <si>
     <t>groupDescTC3</t>
   </si>
   <si>
@@ -335,6 +299,51 @@
   </si>
   <si>
     <t>Manage Report Groups</t>
+  </si>
+  <si>
+    <t>dummyGroupName1</t>
+  </si>
+  <si>
+    <t>dummyGroupName2</t>
+  </si>
+  <si>
+    <t>dummyAutomationGroup1</t>
+  </si>
+  <si>
+    <t>dummyAutomationGroup2</t>
+  </si>
+  <si>
+    <t>AutomationGroup11</t>
+  </si>
+  <si>
+    <t>AutomationGroup1</t>
+  </si>
+  <si>
+    <t>storeName</t>
+  </si>
+  <si>
+    <t>groupAutomationTC3</t>
+  </si>
+  <si>
+    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,Report Group,,System Name,,System Version,,System Status</t>
+  </si>
+  <si>
+    <t>Brand, Store Name, Store Number, Group:,Report Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
+  </si>
+  <si>
+    <t>3003-McDonald4</t>
+  </si>
+  <si>
+    <t>otherUser</t>
+  </si>
+  <si>
+    <t>otherUserPwd</t>
+  </si>
+  <si>
+    <t>sangeetha_gokul@yahoo.com</t>
+  </si>
+  <si>
+    <t>gvcd6bjk5g</t>
   </si>
 </sst>
 </file>
@@ -718,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +739,7 @@
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -743,22 +752,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -772,13 +787,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -912,57 +933,57 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -977,25 +998,25 @@
         <v>43163</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1012,13 +1033,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="148.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1036,10 +1057,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1075,72 +1096,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1151,116 +1172,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="K2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>Password</t>
   </si>
@@ -313,9 +313,6 @@
     <t>dummyAutomationGroup2</t>
   </si>
   <si>
-    <t>AutomationGroup11</t>
-  </si>
-  <si>
     <t>AutomationGroup1</t>
   </si>
   <si>
@@ -344,6 +341,51 @@
   </si>
   <si>
     <t>gvcd6bjk5g</t>
+  </si>
+  <si>
+    <t>AutomationGroup</t>
+  </si>
+  <si>
+    <t>groupNameTC7</t>
+  </si>
+  <si>
+    <t>Group TC7</t>
+  </si>
+  <si>
+    <t>groupDescTC7</t>
+  </si>
+  <si>
+    <t>confirmDeleteTxt</t>
+  </si>
+  <si>
+    <t>groupAlreadyMessage</t>
+  </si>
+  <si>
+    <t>Group already exist in the user account</t>
+  </si>
+  <si>
+    <t>groupNameBlankMessage</t>
+  </si>
+  <si>
+    <t>alreadyDeletedGroup</t>
+  </si>
+  <si>
+    <t>groupNameWith50characters</t>
+  </si>
+  <si>
+    <t>thisgroupnamehas50characters50characters50charact</t>
+  </si>
+  <si>
+    <t>Confirm to Delete
+Are you sure you want to remove this user?
+Yes
+No</t>
+  </si>
+  <si>
+    <t>deletedGroup2</t>
+  </si>
+  <si>
+    <t>Group name may not be blank.</t>
   </si>
 </sst>
 </file>
@@ -727,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,10 +812,10 @@
         <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -796,10 +838,10 @@
         <v>73</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
         <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1057,10 +1099,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1172,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,9 +1235,16 @@
     <col min="11" max="11" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>91</v>
       </c>
@@ -1233,10 +1282,31 @@
         <v>89</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1244,13 +1314,13 @@
         <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -1259,7 +1329,7 @@
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>84</v>
@@ -1274,7 +1344,28 @@
         <v>90</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="SummarizedReportPage" sheetId="5" r:id="rId5"/>
     <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
   <si>
     <t>Password</t>
   </si>
@@ -128,30 +128,18 @@
     <t>includeText</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>formatText</t>
   </si>
   <si>
-    <t>Minutes (min:sec)</t>
-  </si>
-  <si>
     <t>templateHeading</t>
   </si>
   <si>
-    <t>Weekly report for first 2 weeks in March</t>
-  </si>
-  <si>
     <t>reportstartTime</t>
   </si>
   <si>
     <t>reportendTime</t>
   </si>
   <si>
-    <t>MAR 14, 2018 CLOSE</t>
-  </si>
-  <si>
     <t>firstDateRange</t>
   </si>
   <si>
@@ -185,12 +173,6 @@
     <t>Store_labels</t>
   </si>
   <si>
-    <t>ReportsCoulmnHeader</t>
-  </si>
-  <si>
-    <t>Stores, Menu Board, Greet, Service, Lane Queue *, Lane Total, Total Cars</t>
-  </si>
-  <si>
     <t>03/01/2018</t>
   </si>
   <si>
@@ -203,189 +185,429 @@
     <t>WeekReportHeader1</t>
   </si>
   <si>
-    <t>MAR 1, 2018 OPEN</t>
+    <t>TotalWeek</t>
+  </si>
+  <si>
+    <t>averageTimeHeader</t>
+  </si>
+  <si>
+    <t>row1belowWeekHeader</t>
+  </si>
+  <si>
+    <t>row2belowWeekHeader</t>
+  </si>
+  <si>
+    <t>Summary Reports</t>
+  </si>
+  <si>
+    <t>summaryReports</t>
+  </si>
+  <si>
+    <t>cloudUsername</t>
+  </si>
+  <si>
+    <t>cloudPassword</t>
+  </si>
+  <si>
+    <t>selvendrank@nousinfo.com</t>
+  </si>
+  <si>
+    <t>nous;123</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupDesc</t>
+  </si>
+  <si>
+    <t>South west branch Group 11</t>
+  </si>
+  <si>
+    <t>groupNameTC6</t>
+  </si>
+  <si>
+    <t>groupDescTC6</t>
+  </si>
+  <si>
+    <t>South west branch Group 1</t>
+  </si>
+  <si>
+    <t>Group112,My group 101,23315-store1</t>
+  </si>
+  <si>
+    <t>StoresInGroupListTC6</t>
+  </si>
+  <si>
+    <t>groupNameTC3</t>
+  </si>
+  <si>
+    <t>groupDescTC3</t>
+  </si>
+  <si>
+    <t>Group6 desc</t>
+  </si>
+  <si>
+    <t>reportHeadingText</t>
+  </si>
+  <si>
+    <t>Reporting Group Management</t>
+  </si>
+  <si>
+    <t>manageLeaderGroupsText</t>
+  </si>
+  <si>
+    <t>Manage Leaderboard Groups</t>
+  </si>
+  <si>
+    <t>manageReportGroupsText</t>
+  </si>
+  <si>
+    <t>Manage Report Groups</t>
+  </si>
+  <si>
+    <t>dummyGroupName1</t>
+  </si>
+  <si>
+    <t>dummyGroupName2</t>
+  </si>
+  <si>
+    <t>dummyAutomationGroup1</t>
+  </si>
+  <si>
+    <t>dummyAutomationGroup2</t>
+  </si>
+  <si>
+    <t>AutomationGroup1</t>
+  </si>
+  <si>
+    <t>storeName</t>
+  </si>
+  <si>
+    <t>groupAutomationTC3</t>
+  </si>
+  <si>
+    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,Report Group,,System Name,,System Version,,System Status</t>
+  </si>
+  <si>
+    <t>Brand, Store Name, Store Number, Group:,Report Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
+  </si>
+  <si>
+    <t>3003-McDonald4</t>
+  </si>
+  <si>
+    <t>otherUser</t>
+  </si>
+  <si>
+    <t>otherUserPwd</t>
+  </si>
+  <si>
+    <t>sangeetha_gokul@yahoo.com</t>
+  </si>
+  <si>
+    <t>gvcd6bjk5g</t>
+  </si>
+  <si>
+    <t>AutomationGroup</t>
+  </si>
+  <si>
+    <t>groupNameTC7</t>
+  </si>
+  <si>
+    <t>Group TC7</t>
+  </si>
+  <si>
+    <t>groupDescTC7</t>
+  </si>
+  <si>
+    <t>confirmDeleteTxt</t>
+  </si>
+  <si>
+    <t>groupAlreadyMessage</t>
+  </si>
+  <si>
+    <t>Group already exist in the user account</t>
+  </si>
+  <si>
+    <t>groupNameBlankMessage</t>
+  </si>
+  <si>
+    <t>alreadyDeletedGroup</t>
+  </si>
+  <si>
+    <t>groupNameWith50characters</t>
+  </si>
+  <si>
+    <t>thisgroupnamehas50characters50characters50charact</t>
+  </si>
+  <si>
+    <t>deletedGroup2</t>
+  </si>
+  <si>
+    <t>Group name may not be blank.</t>
+  </si>
+  <si>
+    <t>Time Measure :Week</t>
+  </si>
+  <si>
+    <t>criteriaWeekTimeSelection</t>
+  </si>
+  <si>
+    <t>Include :None</t>
+  </si>
+  <si>
+    <t>Format :Minutes (min:sec)</t>
+  </si>
+  <si>
+    <t>March Weekly Report</t>
+  </si>
+  <si>
+    <t>MAR 1 2018 OPEN</t>
+  </si>
+  <si>
+    <t>MAR 14 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>Groups,Stores, Menu, Greet, Service, Lane Queue*, Lane Total, Total Cars</t>
+  </si>
+  <si>
+    <t>ReportsColumnHeader</t>
   </si>
   <si>
     <t>Total Week
-(W-Avg)</t>
-  </si>
-  <si>
-    <t>TotalWeek</t>
-  </si>
-  <si>
-    <t>Store #:,Start Time:,Print Date:,Store Desc.:,Stop Time:,Print Time:</t>
-  </si>
-  <si>
-    <t>averageTimeHeader</t>
-  </si>
-  <si>
-    <t>Week Menu Board Greet Service Lane Queue * Lane Total Total Cars</t>
-  </si>
-  <si>
-    <t>row1belowWeekHeader</t>
-  </si>
-  <si>
-    <t>row2belowWeekHeader</t>
-  </si>
-  <si>
-    <t>03/01 - 03/07
-OPEN - CLOSE</t>
-  </si>
-  <si>
-    <t>Summary Reports</t>
-  </si>
-  <si>
-    <t>summaryReports</t>
-  </si>
-  <si>
-    <t>cloudUsername</t>
-  </si>
-  <si>
-    <t>cloudPassword</t>
-  </si>
-  <si>
-    <t>selvendrank@nousinfo.com</t>
-  </si>
-  <si>
-    <t>nous;123</t>
-  </si>
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>GroupDesc</t>
-  </si>
-  <si>
-    <t>South west branch Group 11</t>
-  </si>
-  <si>
-    <t>groupNameTC6</t>
-  </si>
-  <si>
-    <t>groupDescTC6</t>
-  </si>
-  <si>
-    <t>South west branch Group 1</t>
-  </si>
-  <si>
-    <t>Group112,My group 101,23315-store1</t>
-  </si>
-  <si>
-    <t>StoresInGroupListTC6</t>
-  </si>
-  <si>
-    <t>groupNameTC3</t>
-  </si>
-  <si>
-    <t>groupDescTC3</t>
-  </si>
-  <si>
-    <t>Group6 desc</t>
-  </si>
-  <si>
-    <t>reportHeadingText</t>
-  </si>
-  <si>
-    <t>Reporting Group Management</t>
-  </si>
-  <si>
-    <t>manageLeaderGroupsText</t>
-  </si>
-  <si>
-    <t>Manage Leaderboard Groups</t>
-  </si>
-  <si>
-    <t>manageReportGroupsText</t>
-  </si>
-  <si>
-    <t>Manage Report Groups</t>
-  </si>
-  <si>
-    <t>dummyGroupName1</t>
-  </si>
-  <si>
-    <t>dummyGroupName2</t>
-  </si>
-  <si>
-    <t>dummyAutomationGroup1</t>
-  </si>
-  <si>
-    <t>dummyAutomationGroup2</t>
-  </si>
-  <si>
-    <t>AutomationGroup1</t>
-  </si>
-  <si>
-    <t>storeName</t>
-  </si>
-  <si>
-    <t>groupAutomationTC3</t>
-  </si>
-  <si>
-    <t>" " ,,Brand,,Store,,Store Address,,City, State,,Leaderboard Groups,,Report Group,,System Name,,System Version,,System Status</t>
-  </si>
-  <si>
-    <t>Brand, Store Name, Store Number, Group:,Report Group:, Address Line 1, Address Line 2, Address Line 3, Address Line 4, City, Region: *, Zip:, Country:, Phone:, Fax:</t>
-  </si>
-  <si>
-    <t>3003-McDonald4</t>
-  </si>
-  <si>
-    <t>otherUser</t>
-  </si>
-  <si>
-    <t>otherUserPwd</t>
-  </si>
-  <si>
-    <t>sangeetha_gokul@yahoo.com</t>
-  </si>
-  <si>
-    <t>gvcd6bjk5g</t>
-  </si>
-  <si>
-    <t>AutomationGroup</t>
-  </si>
-  <si>
-    <t>groupNameTC7</t>
-  </si>
-  <si>
-    <t>Group TC7</t>
-  </si>
-  <si>
-    <t>groupDescTC7</t>
-  </si>
-  <si>
-    <t>confirmDeleteTxt</t>
-  </si>
-  <si>
-    <t>groupAlreadyMessage</t>
-  </si>
-  <si>
-    <t>Group already exist in the user account</t>
-  </si>
-  <si>
-    <t>groupNameBlankMessage</t>
-  </si>
-  <si>
-    <t>alreadyDeletedGroup</t>
-  </si>
-  <si>
-    <t>groupNameWith50characters</t>
-  </si>
-  <si>
-    <t>thisgroupnamehas50characters50characters50charact</t>
+W-Avg</t>
+  </si>
+  <si>
+    <t>Store:,Start Time: ,Print Date: ,Description:,Stop Time: ,Print Time:</t>
+  </si>
+  <si>
+    <t>Week,Menu,Greet,Service,Lane Queue*,Lane Total,Total Cars</t>
+  </si>
+  <si>
+    <t>03/01/2018-03/07/2018
+OPEN-CLOSE</t>
+  </si>
+  <si>
+    <t>JanMonth</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>fromDateJan</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Date range invalid. For Week Reports select any 2 month period.</t>
+  </si>
+  <si>
+    <t>DateErrorMsg</t>
+  </si>
+  <si>
+    <t>dayTimeSelection</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>criteriaDayTimeSelection</t>
+  </si>
+  <si>
+    <t>Time Measure :Day</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>EndDate3</t>
+  </si>
+  <si>
+    <t>toDate3</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>FebMonth</t>
+  </si>
+  <si>
+    <t>DateErrorMsg1</t>
+  </si>
+  <si>
+    <t>Date range invalid. For Day Reports select any 1 month period.</t>
+  </si>
+  <si>
+    <t>EndDate4</t>
+  </si>
+  <si>
+    <t>toDate4</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>daypartTimeSelection</t>
+  </si>
+  <si>
+    <t>Daypart</t>
+  </si>
+  <si>
+    <t>criteriaDaypartTimeSelection</t>
+  </si>
+  <si>
+    <t>Time Measure :Daypart</t>
+  </si>
+  <si>
+    <t>EndDate5</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>toDate5</t>
+  </si>
+  <si>
+    <t>DateErrorMsg2</t>
+  </si>
+  <si>
+    <t>Date range invalid. For Daypart Reports select any 2 week period.</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>EndDate6</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>toDate6</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>rawDataReportTimeSelection</t>
+  </si>
+  <si>
+    <t>Raw Data Report</t>
+  </si>
+  <si>
+    <t>criteriaRawDataTimeSelection</t>
+  </si>
+  <si>
+    <t>Time Measure :Raw Data Report</t>
+  </si>
+  <si>
+    <t>EndDate7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>toDate7</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>DateErrorMsg3</t>
+  </si>
+  <si>
+    <t>AprilMonth</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>toDate8</t>
+  </si>
+  <si>
+    <t>Invalid selection. Date range invalid. For daypart report select any 3 months period</t>
+  </si>
+  <si>
+    <t>DateErrorMsg4</t>
+  </si>
+  <si>
+    <t>toDate9</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
   </si>
   <si>
     <t>Confirm to Delete
-Are you sure you want to remove this user?
+Are you sure you want to remove this group?
 Yes
 No</t>
   </si>
   <si>
-    <t>deletedGroup2</t>
-  </si>
-  <si>
-    <t>Group name may not be blank.</t>
+    <t>Date range invalid. For Raw Data Reports select a single day.</t>
+  </si>
+  <si>
+    <t>Summarygrpname1</t>
+  </si>
+  <si>
+    <t>Summarygrpname2</t>
+  </si>
+  <si>
+    <t>Summarygrp</t>
+  </si>
+  <si>
+    <t>ASummarygrpname1</t>
+  </si>
+  <si>
+    <t>ASummarygrpname2</t>
+  </si>
+  <si>
+    <t>ASummarygrp</t>
+  </si>
+  <si>
+    <t>Month_march</t>
+  </si>
+  <si>
+    <t>Month_april</t>
+  </si>
+  <si>
+    <t>Enddate_april</t>
+  </si>
+  <si>
+    <t>fromDate_march</t>
+  </si>
+  <si>
+    <t>toDate_april</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Valid_enddate_april</t>
+  </si>
+  <si>
+    <t>timemeasureoptions</t>
+  </si>
+  <si>
+    <t>Day,Daypart,Week,Raw Data Report</t>
+  </si>
+  <si>
+    <t>Raw Car Data Report</t>
+  </si>
+  <si>
+    <t>rawCarDataReportHeading</t>
+  </si>
+  <si>
+    <t>Goalstatestics</t>
+  </si>
+  <si>
+    <t>GOALS STATISTICS FOR DAY</t>
   </si>
 </sst>
 </file>
@@ -456,21 +678,83 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -793,29 +1077,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>102</v>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -829,19 +1113,19 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -879,37 +1163,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -951,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,57 +1251,189 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="66.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="59.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="123.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="76" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>69</v>
+      <c r="N1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1027,7 +1443,7 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1036,33 +1452,156 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>43163</v>
+      <c r="G2" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>68</v>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2">
+        <v>11</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS2">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI1">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1085,24 +1624,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1115,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,95 +1668,109 @@
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>60</v>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,130 +1795,150 @@
     <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="49" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="S2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="R2" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>115</v>
+      <c r="T2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" t="s">
+        <v>177</v>
+      </c>
+      <c r="V2" t="s">
+        <v>178</v>
+      </c>
+      <c r="W2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
-    <sheet name="AccountsPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ReportsPage" sheetId="3" r:id="rId3"/>
-    <sheet name="StorePage" sheetId="4" r:id="rId4"/>
-    <sheet name="SummarizedReportPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId6"/>
+    <sheet name="UserDetails" sheetId="8" r:id="rId2"/>
+    <sheet name="UsersPage" sheetId="9" r:id="rId3"/>
+    <sheet name="AccountsPage" sheetId="2" r:id="rId4"/>
+    <sheet name="ReportsPage" sheetId="3" r:id="rId5"/>
+    <sheet name="StorePage" sheetId="4" r:id="rId6"/>
+    <sheet name="SummarizedReportPage" sheetId="5" r:id="rId7"/>
+    <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="259">
   <si>
     <t>Password</t>
   </si>
@@ -608,6 +610,206 @@
   </si>
   <si>
     <t>GOALS STATISTICS FOR DAY</t>
+  </si>
+  <si>
+    <t>welcomeMessage</t>
+  </si>
+  <si>
+    <t>Welcome to HME CLOUD, Selvendran!</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>StartDate_March</t>
+  </si>
+  <si>
+    <t>EndDate_March</t>
+  </si>
+  <si>
+    <t>fromDate_March</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>toDate_March</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>StartDate_March1</t>
+  </si>
+  <si>
+    <t>EndDate_March1</t>
+  </si>
+  <si>
+    <t>fromDate_March1</t>
+  </si>
+  <si>
+    <t>toDate_March1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>StartDate_March2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>EndDate_March2</t>
+  </si>
+  <si>
+    <t>fromDate_March2</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>toDate_March2</t>
+  </si>
+  <si>
+    <t>StartDate_March3</t>
+  </si>
+  <si>
+    <t>EndDate_March3</t>
+  </si>
+  <si>
+    <t>fromDate_March3</t>
+  </si>
+  <si>
+    <t>toDate_March3</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>loggedinText</t>
+  </si>
+  <si>
+    <t>Logged in as Kandasamy, Selvendran</t>
+  </si>
+  <si>
+    <t>Welcome to the HME CLOUD, Kandasamy, Selvendran!</t>
+  </si>
+  <si>
+    <t>welcomeText</t>
+  </si>
+  <si>
+    <t>startdate_TC8</t>
+  </si>
+  <si>
+    <t>Fromdate_TC8</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>publicadmin</t>
+  </si>
+  <si>
+    <t>nous-abhradipr@hme.com</t>
+  </si>
+  <si>
+    <t>Logged in as Abhradip Rudra</t>
+  </si>
+  <si>
+    <t>loggedinText1</t>
+  </si>
+  <si>
+    <t>welcomeText1</t>
+  </si>
+  <si>
+    <t>Welcome to the HME CLOUD, Abhradip Rudra!</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>userHeading</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>userSearchText</t>
+  </si>
+  <si>
+    <t>User Details</t>
+  </si>
+  <si>
+    <t>Store Manager</t>
+  </si>
+  <si>
+    <t>DDutcher@hme.com</t>
+  </si>
+  <si>
+    <t>admin_Store_Labels</t>
+  </si>
+  <si>
+    <t>,Company Name,Brand,Store #,Store Name,Store Address,Serial #,Version,Subscription,Status</t>
+  </si>
+  <si>
+    <t>admin_Store_Details</t>
+  </si>
+  <si>
+    <t>Brand: *,Store Name:,Store Number: *,Address Line 1: *,Address Line 2:,Address Line 3:,Address Line 4:,City: *,Region: *,Zip: *,Country: *,Timezone: *,Phone: *,Fax:</t>
+  </si>
+  <si>
+    <t>Month_January</t>
+  </si>
+  <si>
+    <t>January_StartDate</t>
+  </si>
+  <si>
+    <t>January_EndDate</t>
+  </si>
+  <si>
+    <t>fromDate_January2</t>
+  </si>
+  <si>
+    <t>toDate_January2</t>
+  </si>
+  <si>
+    <t>January_EndDate2</t>
+  </si>
+  <si>
+    <t>fromDate_January1</t>
+  </si>
+  <si>
+    <t>toDate_January1</t>
+  </si>
+  <si>
+    <t>goalStatisticsData</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Average Cars in Lane,Total Pullouts,Total Pullins,Delete Over Maximum,Power Fails, System Resets,VBD Resets
+</t>
+  </si>
+  <si>
+    <t>confirmationText</t>
+  </si>
+  <si>
+    <t>Please check your email. Your Report has been sent to .</t>
   </si>
 </sst>
 </file>
@@ -626,14 +828,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -643,6 +837,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,28 +875,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1051,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,42 +1290,62 @@
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="100.5703125" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1127,10 +1370,26 @@
       <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -1143,11 +1402,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1163,37 +1493,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1233,12 +1563,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,158 +1612,265 @@
     <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="16" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="17" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="105.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="AX1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1443,7 +1880,7 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1452,16 +1889,16 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" t="s">
@@ -1470,10 +1907,10 @@
       <c r="L2" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="O2" t="s">
@@ -1482,7 +1919,7 @@
       <c r="P2" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>123</v>
       </c>
       <c r="R2" t="s">
@@ -1500,16 +1937,16 @@
       <c r="V2">
         <v>11</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>133</v>
       </c>
       <c r="X2" t="s">
         <v>136</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="5">
         <v>1</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>139</v>
       </c>
       <c r="AA2" t="s">
@@ -1518,19 +1955,19 @@
       <c r="AB2" t="s">
         <v>144</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>152</v>
       </c>
       <c r="AE2" t="s">
         <v>149</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>154</v>
       </c>
       <c r="AH2" t="s">
@@ -1539,102 +1976,189 @@
       <c r="AI2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>162</v>
       </c>
       <c r="AL2" t="s">
         <v>173</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>166</v>
       </c>
       <c r="AO2" t="s">
         <v>168</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="3" t="s">
         <v>165</v>
       </c>
       <c r="AS2">
         <v>4</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>185</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="3" t="s">
         <v>188</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY2">
+        <v>10</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BC2">
+        <v>13</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG2">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK2">
+        <v>17</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN2" s="5">
+        <v>7</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>13</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BU2" s="9">
+        <v>2</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="148.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="116.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="149.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1643,21 +2167,34 @@
       <c r="B2" t="s">
         <v>87</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,50 +2212,54 @@
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -1731,32 +2272,35 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>116</v>
       </c>
       <c r="I2" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>189</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1765,12 +2309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,73 +2344,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1895,40 +2439,40 @@
       <c r="H2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>100</v>
       </c>
       <c r="R2" t="s">
         <v>106</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>104</v>
       </c>
       <c r="U2" t="s">

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="SummarizedReportPage" sheetId="5" r:id="rId7"/>
     <sheet name="ReportingGroupManagementPage" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
   <si>
     <t>Password</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>toDate8</t>
-  </si>
-  <si>
-    <t>Invalid selection. Date range invalid. For daypart report select any 3 months period</t>
   </si>
   <si>
     <t>DateErrorMsg4</t>
@@ -810,6 +807,69 @@
   </si>
   <si>
     <t>Please check your email. Your Report has been sent to .</t>
+  </si>
+  <si>
+    <t>Franchise.johnsmith@gmail.com</t>
+  </si>
+  <si>
+    <t>userSearchText1</t>
+  </si>
+  <si>
+    <t>Groupwith250Stores</t>
+  </si>
+  <si>
+    <t>Group250</t>
+  </si>
+  <si>
+    <t>confirmationText1</t>
+  </si>
+  <si>
+    <t>Please check your email. Your Report has been sent to selvendrank@nousinfo.com.</t>
+  </si>
+  <si>
+    <t>group100</t>
+  </si>
+  <si>
+    <t>Group100</t>
+  </si>
+  <si>
+    <t>Date range invalid. For daypart report select any 3 months period</t>
+  </si>
+  <si>
+    <t>endDate7</t>
+  </si>
+  <si>
+    <t>toDate12</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>DateRange5</t>
+  </si>
+  <si>
+    <t>endDate8</t>
+  </si>
+  <si>
+    <t>toDate13</t>
+  </si>
+  <si>
+    <t>StartDate_TC7</t>
+  </si>
+  <si>
+    <t>TOdate_TC7</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>averagetime_headers_08</t>
+  </si>
+  <si>
+    <t>Menu,Greet,Service,Lane Queue*,Lane Total,Total Cars</t>
+  </si>
+  <si>
+    <t>enddate_april</t>
   </si>
 </sst>
 </file>
@@ -877,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -892,6 +952,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1277,7 +1338,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,22 +1387,22 @@
         <v>91</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -1371,22 +1432,22 @@
         <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" t="s">
         <v>222</v>
       </c>
-      <c r="K2" t="s">
-        <v>223</v>
-      </c>
       <c r="L2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" t="s">
         <v>229</v>
       </c>
-      <c r="M2" t="s">
-        <v>230</v>
-      </c>
       <c r="N2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1415,12 +1476,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1430,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,33 +1502,41 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>239</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>241</v>
+      <c r="D2" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1565,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX2"/>
+  <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,9 +1707,18 @@
     <col min="74" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="105.5703125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="60" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="51" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1762,115 +1840,142 @@
         <v>167</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="AV1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="AX1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AZ1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="BA1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="BF1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="BI1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="BN1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="BP1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="BX1" s="1" t="s">
-        <v>254</v>
+      <c r="BY1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +2088,7 @@
         <v>162</v>
       </c>
       <c r="AL2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM2" s="2" t="s">
         <v>165</v>
@@ -1992,10 +2097,10 @@
         <v>166</v>
       </c>
       <c r="AO2" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>27</v>
@@ -2010,49 +2115,49 @@
         <v>49</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AY2">
         <v>10</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BC2">
         <v>13</v>
       </c>
       <c r="BD2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="BE2" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="BF2" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BG2">
         <v>16</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BJ2" s="5" t="s">
         <v>150</v>
@@ -2061,16 +2166,16 @@
         <v>17</v>
       </c>
       <c r="BL2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BM2" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="BN2" s="5">
         <v>7</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BP2" s="3" t="s">
         <v>121</v>
@@ -2085,7 +2190,7 @@
         <v>123</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BU2" s="9">
         <v>2</v>
@@ -2097,7 +2202,34 @@
         <v>162</v>
       </c>
       <c r="BX2" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="BY2" s="9">
+        <v>23</v>
+      </c>
+      <c r="BZ2" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB2">
+        <v>15</v>
+      </c>
+      <c r="CC2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="CD2">
+        <v>10</v>
+      </c>
+      <c r="CE2" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CG2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2151,10 +2283,10 @@
         <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2168,10 +2300,10 @@
         <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2191,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,9 +2345,10 @@
     <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2250,16 +2383,19 @@
         <v>56</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -2294,13 +2430,16 @@
         <v>116</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="O2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2311,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2341,9 +2480,10 @@
     <col min="20" max="20" width="49" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2405,16 +2545,22 @@
         <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>176</v>
+      <c r="X1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2461,7 +2607,7 @@
         <v>68</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>100</v>
@@ -2476,13 +2622,19 @@
         <v>104</v>
       </c>
       <c r="U2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" t="s">
         <v>177</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>178</v>
       </c>
-      <c r="W2" t="s">
-        <v>179</v>
+      <c r="X2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -1636,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,6 +1699,7 @@
     <col min="65" max="65" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="18.42578125" bestFit="1" customWidth="1"/>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
   <si>
     <t>Password</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>enddate_april</t>
+  </si>
+  <si>
+    <t>DateErrorMsg6</t>
+  </si>
+  <si>
+    <t>Date range invalid. For day report select any 1 month period.</t>
   </si>
 </sst>
 </file>
@@ -1634,10 +1640,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG2"/>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CH2" sqref="CH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,9 +1723,10 @@
     <col min="83" max="83" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="51" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="55.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1975,8 +1982,11 @@
       <c r="CG1" s="1" t="s">
         <v>278</v>
       </c>
+      <c r="CH1" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2231,6 +2241,9 @@
       </c>
       <c r="CG2">
         <v>2</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="290">
   <si>
     <t>Password</t>
   </si>
@@ -148,9 +148,6 @@
     <t>MAR 1, 2018 OPEN - MAR 7, 2018 CLOSE</t>
   </si>
   <si>
-    <t>Summarized Report</t>
-  </si>
-  <si>
     <t>summaryHeading</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>secondDateRange</t>
   </si>
   <si>
-    <t>MAR 8, 2018 OPEN - MAR 14, 2018 CLOSE</t>
-  </si>
-  <si>
     <t>WeekReportHeader1</t>
   </si>
   <si>
@@ -362,15 +356,6 @@
   </si>
   <si>
     <t>March Weekly Report</t>
-  </si>
-  <si>
-    <t>MAR 1 2018 OPEN</t>
-  </si>
-  <si>
-    <t>MAR 14 2018 CLOSE</t>
-  </si>
-  <si>
-    <t>Groups,Stores, Menu, Greet, Service, Lane Queue*, Lane Total, Total Cars</t>
   </si>
   <si>
     <t>ReportsColumnHeader</t>
@@ -381,13 +366,6 @@
   </si>
   <si>
     <t>Store:,Start Time: ,Print Date: ,Description:,Stop Time: ,Print Time:</t>
-  </si>
-  <si>
-    <t>Week,Menu,Greet,Service,Lane Queue*,Lane Total,Total Cars</t>
-  </si>
-  <si>
-    <t>03/01/2018-03/07/2018
-OPEN-CLOSE</t>
   </si>
   <si>
     <t>JanMonth</t>
@@ -876,6 +854,67 @@
   </si>
   <si>
     <t>Date range invalid. For day report select any 1 month period.</t>
+  </si>
+  <si>
+    <t>Summarized Report</t>
+  </si>
+  <si>
+    <t>summaryReportHeader</t>
+  </si>
+  <si>
+    <r>
+      <t>Day,Menu Board,Greet,Service,Lane Queue,Lane Total,Total Cars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>reportstartTime1</t>
+  </si>
+  <si>
+    <t>reportendTime1</t>
+  </si>
+  <si>
+    <t>Groups,Stores, Menu 1,Menu Board, Greet,Menu 2,Cashier,Presenter,Service, Lane Queue, Lane Total,Lane Total 2,Total Cars</t>
+  </si>
+  <si>
+    <t>Total Week</t>
+  </si>
+  <si>
+    <t>Week,Menu Board ,Greet,Service,Lane Queue,Lane Total,Total Cars</t>
+  </si>
+  <si>
+    <t>MAR 1, 2018 OPEN</t>
+  </si>
+  <si>
+    <t>MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>03/01-03/07
+OPEN - CLOSE</t>
+  </si>
+  <si>
+    <t>MAR 8, 2018 OPEN - MAR 14, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>daypart</t>
+  </si>
+  <si>
+    <t>03/01-Daypart1</t>
+  </si>
+  <si>
+    <t>Mar 1, 2018 CLOSE</t>
+  </si>
+  <si>
+    <t>Mar 1, 2018 OPEN</t>
   </si>
 </sst>
 </file>
@@ -885,7 +924,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,6 +954,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -943,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
@@ -959,6 +1004,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1369,46 +1415,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -1423,37 +1469,37 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" t="s">
         <v>221</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>222</v>
       </c>
-      <c r="L2" t="s">
-        <v>228</v>
-      </c>
-      <c r="M2" t="s">
-        <v>229</v>
-      </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1482,12 +1528,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1513,30 +1559,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1642,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1700,7 @@
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="114.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -1743,13 +1789,13 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
@@ -1767,223 +1813,223 @@
         <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="AI1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="AP1" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AQ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="AX1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="BO1" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="BY1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CE1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CG1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.25">
@@ -2006,190 +2052,190 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" t="s">
         <v>123</v>
-      </c>
-      <c r="R2" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" t="s">
-        <v>130</v>
       </c>
       <c r="V2">
         <v>11</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="X2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Y2" s="5">
         <v>1</v>
       </c>
       <c r="Z2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE2" t="s">
         <v>142</v>
       </c>
-      <c r="AB2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AF2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" t="s">
         <v>149</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>156</v>
-      </c>
       <c r="AI2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AJ2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AO2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AS2">
         <v>4</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX2" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="AY2">
         <v>10</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB2" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="BC2">
         <v>13</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="BG2">
         <v>16</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="BK2">
         <v>17</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="BN2" s="5">
         <v>7</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="BQ2">
         <v>1</v>
@@ -2198,52 +2244,52 @@
         <v>13</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="BU2" s="9">
         <v>2</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="BX2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="BY2" s="9">
         <v>23</v>
       </c>
       <c r="BZ2" s="10" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="CA2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="CB2">
         <v>15</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="CD2">
         <v>10</v>
       </c>
       <c r="CE2" s="10" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="CG2">
         <v>2</v>
       </c>
       <c r="CH2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2294,13 +2340,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2308,16 +2354,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2337,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,20 +2395,23 @@
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.140625" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -2373,87 +2422,105 @@
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>262</v>
+        <v>275</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>118</v>
+        <v>285</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>191</v>
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" t="s">
+        <v>250</v>
       </c>
       <c r="N2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O2" t="s">
-        <v>263</v>
+        <v>256</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2534,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,156 +2566,156 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>169</v>
+      </c>
+      <c r="V2" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" t="s">
         <v>171</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" t="s">
-        <v>178</v>
-      </c>
       <c r="X2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Y2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestData.xlsx
+++ b/Data Files/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="304">
   <si>
     <t>Password</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>Include :None</t>
-  </si>
-  <si>
-    <t>Format :Minutes (min:sec)</t>
   </si>
   <si>
     <t>March Weekly Report</t>
@@ -504,9 +501,6 @@
   </si>
   <si>
     <t>April</t>
-  </si>
-  <si>
-    <t>04/02/2018</t>
   </si>
   <si>
     <t>toDate8</t>
@@ -883,9 +877,6 @@
     <t>reportendTime1</t>
   </si>
   <si>
-    <t>Groups,Stores, Menu 1,Menu Board, Greet,Menu 2,Cashier,Presenter,Service, Lane Queue, Lane Total,Lane Total 2,Total Cars</t>
-  </si>
-  <si>
     <t>Total Week</t>
   </si>
   <si>
@@ -915,6 +906,57 @@
   </si>
   <si>
     <t>Mar 1, 2018 OPEN</t>
+  </si>
+  <si>
+    <t>Groups,Stores,Menu Board, Greet,Cashier,Presenter,Service, Lane Queue, Lane Total,Lane Total 2,Total Cars</t>
+  </si>
+  <si>
+    <t>Groups,Stores,Menu Board, Greet,Service, Lane Queue, Lane Total,Total Cars</t>
+  </si>
+  <si>
+    <t>ReportsColumnHeader1</t>
+  </si>
+  <si>
+    <t>errorMsgAdvancedOptionSelection</t>
+  </si>
+  <si>
+    <t>Date range invalid. For Advanced Options Reports select any 3 month period.</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Format :Seconds (sec)</t>
+  </si>
+  <si>
+    <t>UAT_Username</t>
+  </si>
+  <si>
+    <t>UAT_Password</t>
+  </si>
+  <si>
+    <t>swtest01@hme.com</t>
+  </si>
+  <si>
+    <t>SWTest01</t>
+  </si>
+  <si>
+    <t>welcomeMsg</t>
+  </si>
+  <si>
+    <t>Welcome to HME CLOUD</t>
+  </si>
+  <si>
+    <t>UAT_OtherUser</t>
+  </si>
+  <si>
+    <t>shalini.ngm@gmail.com</t>
+  </si>
+  <si>
+    <t>UAT_OtherUserPwd</t>
+  </si>
+  <si>
+    <t>Hme@1234</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,11 +1451,16 @@
     <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" customWidth="1"/>
     <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1439,26 +1486,40 @@
         <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1484,32 +1545,48 @@
         <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N2" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="O2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P2" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1528,12 +1605,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1559,30 +1636,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH2"/>
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,9 +1847,11 @@
     <col min="84" max="84" width="51" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="78.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1795,7 +1874,7 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>30</v>
@@ -1819,220 +1898,226 @@
         <v>106</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="AF1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="AN1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="AW1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="BF1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="BH1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BL1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="BN1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="BP1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="BY1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="BZ1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="CD1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="CG1" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="CH1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2052,10 +2137,10 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>48</v>
@@ -2067,10 +2152,10 @@
         <v>107</v>
       </c>
       <c r="L2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>55</v>
@@ -2079,91 +2164,91 @@
         <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
         <v>116</v>
       </c>
-      <c r="R2" t="s">
-        <v>117</v>
-      </c>
       <c r="S2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" t="s">
         <v>122</v>
-      </c>
-      <c r="U2" t="s">
-        <v>123</v>
       </c>
       <c r="V2">
         <v>11</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y2" s="5">
         <v>1</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AF2" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="AG2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="AO2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AQ2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS2">
         <v>4</v>
@@ -2172,70 +2257,70 @@
         <v>48</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AV2">
         <v>1</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AY2">
         <v>10</v>
       </c>
       <c r="AZ2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="BA2" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="BB2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BC2">
         <v>13</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BE2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF2" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="BG2">
         <v>16</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BK2">
         <v>17</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BN2" s="5">
         <v>7</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BQ2">
         <v>1</v>
@@ -2244,52 +2329,58 @@
         <v>13</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BU2" s="9">
         <v>2</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BX2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BY2" s="9">
         <v>23</v>
       </c>
       <c r="BZ2" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="CA2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="CB2">
         <v>15</v>
       </c>
       <c r="CC2" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CD2">
         <v>10</v>
       </c>
       <c r="CE2" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="CF2" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="CG2">
         <v>2</v>
       </c>
       <c r="CH2" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>288</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2434,10 @@
         <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2360,10 +2451,10 @@
         <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2385,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,84 +2534,84 @@
         <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="P2" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="R2" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2533,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,19 +2717,19 @@
         <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="105" x14ac:dyDescent="0.25">
@@ -2688,7 +2779,7 @@
         <v>66</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>98</v>
@@ -2703,19 +2794,19 @@
         <v>102</v>
       </c>
       <c r="U2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" t="s">
         <v>169</v>
       </c>
-      <c r="V2" t="s">
-        <v>170</v>
-      </c>
-      <c r="W2" t="s">
-        <v>171</v>
-      </c>
       <c r="X2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Y2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
